--- a/timetabling_GA/results/HK3_CT02_2025/TKB_Hoc_Ky.xlsx
+++ b/timetabling_GA/results/HK3_CT02_2025/TKB_Hoc_Ky.xlsx
@@ -70,7 +70,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -81,6 +81,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="004A86E8"/>
         <bgColor rgb="004A86E8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BDD7EE"/>
+        <bgColor rgb="00BDD7EE"/>
       </patternFill>
     </fill>
     <fill>
@@ -149,7 +155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -173,6 +179,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -667,25 +676,25 @@
       <c r="F8" s="7" t="n"/>
       <c r="G8" s="7" t="n"/>
       <c r="H8" s="7" t="n"/>
-      <c r="I8" s="8" t="inlineStr">
+      <c r="I8" s="7" t="n"/>
+      <c r="J8" s="8" t="inlineStr">
         <is>
           <t>MH014
-(Thực hành)
-Phòng: TH1
+(Lý thuyết)
+Phòng: LT2
 GV: GV006</t>
         </is>
       </c>
-      <c r="J8" s="7" t="n"/>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>DH23AI</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
@@ -696,20 +705,20 @@
       <c r="F9" s="7" t="n"/>
       <c r="G9" s="7" t="n"/>
       <c r="H9" s="7" t="n"/>
-      <c r="I9" s="7" t="n"/>
-      <c r="J9" s="8" t="inlineStr">
+      <c r="I9" s="9" t="inlineStr">
         <is>
           <t>MH013
 (Thực hành)
-Phòng: LT4
-GV: GV005</t>
-        </is>
-      </c>
+Phòng: TH3
+GV: GV008</t>
+        </is>
+      </c>
+      <c r="J9" s="7" t="n"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -724,11 +733,11 @@
       <c r="E10" s="7" t="n"/>
       <c r="F10" s="7" t="n"/>
       <c r="G10" s="7" t="n"/>
-      <c r="H10" s="8" t="inlineStr">
+      <c r="H10" s="9" t="inlineStr">
         <is>
           <t>MH014
 (Thực hành)
-Phòng: LT1
+Phòng: TH2
 GV: GV006</t>
         </is>
       </c>
@@ -752,7 +761,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -867,33 +876,36 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>DH23AI</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D8" s="7" t="n"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>MH013
+(Lý thuyết)
+Phòng: LT4
+GV: GV008</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="n"/>
-      <c r="F8" s="7" t="n"/>
+      <c r="F8" s="8" t="inlineStr">
+        <is>
+          <t>MH014
+(Lý thuyết)
+Phòng: LT4
+GV: GV006</t>
+        </is>
+      </c>
       <c r="G8" s="7" t="n"/>
       <c r="H8" s="7" t="n"/>
-      <c r="I8" s="8" t="inlineStr">
-        <is>
-          <t>MH014
-(Thực hành)
-Phòng: TH1
-GV: GV006</t>
-        </is>
-      </c>
+      <c r="I8" s="7" t="n"/>
       <c r="J8" s="7" t="n"/>
     </row>
     <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
+      <c r="A9" s="10" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
           <t>DH23AI</t>
@@ -904,151 +916,54 @@
       </c>
       <c r="D9" s="7" t="n"/>
       <c r="E9" s="7" t="n"/>
-      <c r="F9" s="8" t="inlineStr">
-        <is>
-          <t>MH013
-(Thực hành)
-Phòng: TH2
-GV: GV005</t>
-        </is>
-      </c>
+      <c r="F9" s="7" t="n"/>
       <c r="G9" s="7" t="n"/>
       <c r="H9" s="7" t="n"/>
       <c r="I9" s="7" t="n"/>
       <c r="J9" s="8" t="inlineStr">
         <is>
-          <t>MH013
-(Thực hành)
-Phòng: LT4
-GV: GV005</t>
+          <t>MH014
+(Lý thuyết)
+Phòng: LT2
+GV: GV006</t>
         </is>
       </c>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C10" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D10" s="7" t="n"/>
-      <c r="E10" s="8" t="inlineStr">
+      <c r="D10" s="8" t="inlineStr">
         <is>
           <t>MH013
-(Thực hành)
-Phòng: TH3
+(Lý thuyết)
+Phòng: LT2
 GV: GV005</t>
         </is>
       </c>
+      <c r="E10" s="7" t="n"/>
       <c r="F10" s="7" t="n"/>
       <c r="G10" s="7" t="n"/>
       <c r="H10" s="7" t="n"/>
       <c r="I10" s="7" t="n"/>
       <c r="J10" s="7" t="n"/>
     </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>DH22IT</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>MH014
-(Thực hành)
-Phòng: TH3
-GV: GV006</t>
-        </is>
-      </c>
-      <c r="E11" s="7" t="n"/>
-      <c r="F11" s="8" t="inlineStr">
-        <is>
-          <t>MH013
-(Thực hành)
-Phòng: LT2
-GV: GV008</t>
-        </is>
-      </c>
-      <c r="G11" s="7" t="n"/>
-      <c r="H11" s="7" t="n"/>
-      <c r="I11" s="7" t="n"/>
-      <c r="J11" s="7" t="n"/>
-    </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="9" t="n"/>
-      <c r="B12" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D12" s="7" t="n"/>
-      <c r="E12" s="8" t="inlineStr">
-        <is>
-          <t>MH014
-(Thực hành)
-Phòng: LT3
-GV: GV006</t>
-        </is>
-      </c>
-      <c r="F12" s="7" t="n"/>
-      <c r="G12" s="7" t="n"/>
-      <c r="H12" s="7" t="n"/>
-      <c r="I12" s="7" t="n"/>
-      <c r="J12" s="7" t="n"/>
-    </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="B13" s="7" t="inlineStr">
-        <is>
-          <t>DH22IT</t>
-        </is>
-      </c>
-      <c r="C13" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D13" s="7" t="n"/>
-      <c r="E13" s="7" t="n"/>
-      <c r="F13" s="7" t="n"/>
-      <c r="G13" s="7" t="n"/>
-      <c r="H13" s="8" t="inlineStr">
-        <is>
-          <t>MH014
-(Thực hành)
-Phòng: LT1
-GV: GV006</t>
-        </is>
-      </c>
-      <c r="I13" s="7" t="n"/>
-      <c r="J13" s="7" t="n"/>
-    </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A11:A12"/>
     <mergeCell ref="A5:G5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1061,7 +976,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1176,33 +1091,36 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>DH23AI</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D8" s="7" t="n"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>MH013
+(Lý thuyết)
+Phòng: LT4
+GV: GV008</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="n"/>
-      <c r="F8" s="7" t="n"/>
+      <c r="F8" s="8" t="inlineStr">
+        <is>
+          <t>MH014
+(Lý thuyết)
+Phòng: LT4
+GV: GV006</t>
+        </is>
+      </c>
       <c r="G8" s="7" t="n"/>
       <c r="H8" s="7" t="n"/>
-      <c r="I8" s="8" t="inlineStr">
-        <is>
-          <t>MH014
-(Thực hành)
-Phòng: TH1
-GV: GV006</t>
-        </is>
-      </c>
+      <c r="I8" s="7" t="n"/>
       <c r="J8" s="7" t="n"/>
     </row>
     <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
+      <c r="A9" s="10" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
           <t>DH23AI</t>
@@ -1213,151 +1131,54 @@
       </c>
       <c r="D9" s="7" t="n"/>
       <c r="E9" s="7" t="n"/>
-      <c r="F9" s="8" t="inlineStr">
-        <is>
-          <t>MH013
-(Thực hành)
-Phòng: TH2
-GV: GV005</t>
-        </is>
-      </c>
+      <c r="F9" s="7" t="n"/>
       <c r="G9" s="7" t="n"/>
       <c r="H9" s="7" t="n"/>
       <c r="I9" s="7" t="n"/>
       <c r="J9" s="8" t="inlineStr">
         <is>
-          <t>MH013
-(Thực hành)
-Phòng: LT4
-GV: GV005</t>
+          <t>MH014
+(Lý thuyết)
+Phòng: LT2
+GV: GV006</t>
         </is>
       </c>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C10" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D10" s="7" t="n"/>
-      <c r="E10" s="8" t="inlineStr">
+      <c r="D10" s="8" t="inlineStr">
         <is>
           <t>MH013
-(Thực hành)
-Phòng: TH3
+(Lý thuyết)
+Phòng: LT2
 GV: GV005</t>
         </is>
       </c>
+      <c r="E10" s="7" t="n"/>
       <c r="F10" s="7" t="n"/>
       <c r="G10" s="7" t="n"/>
       <c r="H10" s="7" t="n"/>
       <c r="I10" s="7" t="n"/>
       <c r="J10" s="7" t="n"/>
     </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>DH22IT</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>MH014
-(Thực hành)
-Phòng: TH3
-GV: GV006</t>
-        </is>
-      </c>
-      <c r="E11" s="7" t="n"/>
-      <c r="F11" s="8" t="inlineStr">
-        <is>
-          <t>MH013
-(Thực hành)
-Phòng: LT2
-GV: GV008</t>
-        </is>
-      </c>
-      <c r="G11" s="7" t="n"/>
-      <c r="H11" s="7" t="n"/>
-      <c r="I11" s="7" t="n"/>
-      <c r="J11" s="7" t="n"/>
-    </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="9" t="n"/>
-      <c r="B12" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D12" s="7" t="n"/>
-      <c r="E12" s="8" t="inlineStr">
-        <is>
-          <t>MH014
-(Thực hành)
-Phòng: LT3
-GV: GV006</t>
-        </is>
-      </c>
-      <c r="F12" s="7" t="n"/>
-      <c r="G12" s="7" t="n"/>
-      <c r="H12" s="7" t="n"/>
-      <c r="I12" s="7" t="n"/>
-      <c r="J12" s="7" t="n"/>
-    </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="B13" s="7" t="inlineStr">
-        <is>
-          <t>DH22IT</t>
-        </is>
-      </c>
-      <c r="C13" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D13" s="7" t="n"/>
-      <c r="E13" s="7" t="n"/>
-      <c r="F13" s="7" t="n"/>
-      <c r="G13" s="7" t="n"/>
-      <c r="H13" s="8" t="inlineStr">
-        <is>
-          <t>MH014
-(Thực hành)
-Phòng: LT1
-GV: GV006</t>
-        </is>
-      </c>
-      <c r="I13" s="7" t="n"/>
-      <c r="J13" s="7" t="n"/>
-    </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A11:A12"/>
     <mergeCell ref="A5:G5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1370,7 +1191,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1485,33 +1306,36 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>DH23AI</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D8" s="7" t="n"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>MH013
+(Lý thuyết)
+Phòng: LT4
+GV: GV008</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="n"/>
-      <c r="F8" s="7" t="n"/>
+      <c r="F8" s="8" t="inlineStr">
+        <is>
+          <t>MH014
+(Lý thuyết)
+Phòng: LT4
+GV: GV006</t>
+        </is>
+      </c>
       <c r="G8" s="7" t="n"/>
       <c r="H8" s="7" t="n"/>
-      <c r="I8" s="8" t="inlineStr">
-        <is>
-          <t>MH014
-(Thực hành)
-Phòng: TH1
-GV: GV006</t>
-        </is>
-      </c>
+      <c r="I8" s="7" t="n"/>
       <c r="J8" s="7" t="n"/>
     </row>
     <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
+      <c r="A9" s="10" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
           <t>DH23AI</t>
@@ -1522,151 +1346,54 @@
       </c>
       <c r="D9" s="7" t="n"/>
       <c r="E9" s="7" t="n"/>
-      <c r="F9" s="8" t="inlineStr">
-        <is>
-          <t>MH013
-(Thực hành)
-Phòng: TH2
-GV: GV005</t>
-        </is>
-      </c>
+      <c r="F9" s="7" t="n"/>
       <c r="G9" s="7" t="n"/>
       <c r="H9" s="7" t="n"/>
       <c r="I9" s="7" t="n"/>
       <c r="J9" s="8" t="inlineStr">
         <is>
-          <t>MH013
-(Thực hành)
-Phòng: LT4
-GV: GV005</t>
+          <t>MH014
+(Lý thuyết)
+Phòng: LT2
+GV: GV006</t>
         </is>
       </c>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C10" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D10" s="7" t="n"/>
-      <c r="E10" s="8" t="inlineStr">
+      <c r="D10" s="8" t="inlineStr">
         <is>
           <t>MH013
-(Thực hành)
-Phòng: TH3
+(Lý thuyết)
+Phòng: LT2
 GV: GV005</t>
         </is>
       </c>
+      <c r="E10" s="7" t="n"/>
       <c r="F10" s="7" t="n"/>
       <c r="G10" s="7" t="n"/>
       <c r="H10" s="7" t="n"/>
       <c r="I10" s="7" t="n"/>
       <c r="J10" s="7" t="n"/>
     </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>DH22IT</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>MH014
-(Thực hành)
-Phòng: TH3
-GV: GV006</t>
-        </is>
-      </c>
-      <c r="E11" s="7" t="n"/>
-      <c r="F11" s="8" t="inlineStr">
-        <is>
-          <t>MH013
-(Thực hành)
-Phòng: LT2
-GV: GV008</t>
-        </is>
-      </c>
-      <c r="G11" s="7" t="n"/>
-      <c r="H11" s="7" t="n"/>
-      <c r="I11" s="7" t="n"/>
-      <c r="J11" s="7" t="n"/>
-    </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="9" t="n"/>
-      <c r="B12" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D12" s="7" t="n"/>
-      <c r="E12" s="8" t="inlineStr">
-        <is>
-          <t>MH014
-(Thực hành)
-Phòng: LT3
-GV: GV006</t>
-        </is>
-      </c>
-      <c r="F12" s="7" t="n"/>
-      <c r="G12" s="7" t="n"/>
-      <c r="H12" s="7" t="n"/>
-      <c r="I12" s="7" t="n"/>
-      <c r="J12" s="7" t="n"/>
-    </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="B13" s="7" t="inlineStr">
-        <is>
-          <t>DH22IT</t>
-        </is>
-      </c>
-      <c r="C13" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D13" s="7" t="n"/>
-      <c r="E13" s="7" t="n"/>
-      <c r="F13" s="7" t="n"/>
-      <c r="G13" s="7" t="n"/>
-      <c r="H13" s="8" t="inlineStr">
-        <is>
-          <t>MH014
-(Thực hành)
-Phòng: LT1
-GV: GV006</t>
-        </is>
-      </c>
-      <c r="I13" s="7" t="n"/>
-      <c r="J13" s="7" t="n"/>
-    </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A11:A12"/>
     <mergeCell ref="A5:G5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1679,7 +1406,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1794,33 +1521,36 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>DH23AI</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D8" s="7" t="n"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>MH013
+(Lý thuyết)
+Phòng: LT4
+GV: GV008</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="n"/>
-      <c r="F8" s="7" t="n"/>
+      <c r="F8" s="8" t="inlineStr">
+        <is>
+          <t>MH014
+(Lý thuyết)
+Phòng: LT4
+GV: GV006</t>
+        </is>
+      </c>
       <c r="G8" s="7" t="n"/>
       <c r="H8" s="7" t="n"/>
-      <c r="I8" s="8" t="inlineStr">
-        <is>
-          <t>MH014
-(Thực hành)
-Phòng: TH1
-GV: GV006</t>
-        </is>
-      </c>
+      <c r="I8" s="7" t="n"/>
       <c r="J8" s="7" t="n"/>
     </row>
     <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
+      <c r="A9" s="10" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
           <t>DH23AI</t>
@@ -1831,151 +1561,54 @@
       </c>
       <c r="D9" s="7" t="n"/>
       <c r="E9" s="7" t="n"/>
-      <c r="F9" s="8" t="inlineStr">
-        <is>
-          <t>MH013
-(Thực hành)
-Phòng: TH2
-GV: GV005</t>
-        </is>
-      </c>
+      <c r="F9" s="7" t="n"/>
       <c r="G9" s="7" t="n"/>
       <c r="H9" s="7" t="n"/>
       <c r="I9" s="7" t="n"/>
       <c r="J9" s="8" t="inlineStr">
         <is>
-          <t>MH013
-(Thực hành)
-Phòng: LT4
-GV: GV005</t>
+          <t>MH014
+(Lý thuyết)
+Phòng: LT2
+GV: GV006</t>
         </is>
       </c>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C10" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D10" s="7" t="n"/>
-      <c r="E10" s="8" t="inlineStr">
+      <c r="D10" s="8" t="inlineStr">
         <is>
           <t>MH013
-(Thực hành)
-Phòng: TH3
+(Lý thuyết)
+Phòng: LT2
 GV: GV005</t>
         </is>
       </c>
+      <c r="E10" s="7" t="n"/>
       <c r="F10" s="7" t="n"/>
       <c r="G10" s="7" t="n"/>
       <c r="H10" s="7" t="n"/>
       <c r="I10" s="7" t="n"/>
       <c r="J10" s="7" t="n"/>
     </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>DH22IT</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>MH014
-(Thực hành)
-Phòng: TH3
-GV: GV006</t>
-        </is>
-      </c>
-      <c r="E11" s="7" t="n"/>
-      <c r="F11" s="8" t="inlineStr">
-        <is>
-          <t>MH013
-(Thực hành)
-Phòng: LT2
-GV: GV008</t>
-        </is>
-      </c>
-      <c r="G11" s="7" t="n"/>
-      <c r="H11" s="7" t="n"/>
-      <c r="I11" s="7" t="n"/>
-      <c r="J11" s="7" t="n"/>
-    </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="9" t="n"/>
-      <c r="B12" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D12" s="7" t="n"/>
-      <c r="E12" s="8" t="inlineStr">
-        <is>
-          <t>MH014
-(Thực hành)
-Phòng: LT3
-GV: GV006</t>
-        </is>
-      </c>
-      <c r="F12" s="7" t="n"/>
-      <c r="G12" s="7" t="n"/>
-      <c r="H12" s="7" t="n"/>
-      <c r="I12" s="7" t="n"/>
-      <c r="J12" s="7" t="n"/>
-    </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="B13" s="7" t="inlineStr">
-        <is>
-          <t>DH22IT</t>
-        </is>
-      </c>
-      <c r="C13" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D13" s="7" t="n"/>
-      <c r="E13" s="7" t="n"/>
-      <c r="F13" s="7" t="n"/>
-      <c r="G13" s="7" t="n"/>
-      <c r="H13" s="8" t="inlineStr">
-        <is>
-          <t>MH014
-(Thực hành)
-Phòng: LT1
-GV: GV006</t>
-        </is>
-      </c>
-      <c r="I13" s="7" t="n"/>
-      <c r="J13" s="7" t="n"/>
-    </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A11:A12"/>
     <mergeCell ref="A5:G5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1988,7 +1621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2103,33 +1736,36 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>DH23AI</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D8" s="7" t="n"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>MH013
+(Lý thuyết)
+Phòng: LT4
+GV: GV008</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="n"/>
-      <c r="F8" s="7" t="n"/>
+      <c r="F8" s="8" t="inlineStr">
+        <is>
+          <t>MH014
+(Lý thuyết)
+Phòng: LT4
+GV: GV006</t>
+        </is>
+      </c>
       <c r="G8" s="7" t="n"/>
       <c r="H8" s="7" t="n"/>
-      <c r="I8" s="8" t="inlineStr">
-        <is>
-          <t>MH014
-(Thực hành)
-Phòng: TH1
-GV: GV006</t>
-        </is>
-      </c>
+      <c r="I8" s="7" t="n"/>
       <c r="J8" s="7" t="n"/>
     </row>
     <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
+      <c r="A9" s="10" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
           <t>DH23AI</t>
@@ -2140,151 +1776,54 @@
       </c>
       <c r="D9" s="7" t="n"/>
       <c r="E9" s="7" t="n"/>
-      <c r="F9" s="8" t="inlineStr">
-        <is>
-          <t>MH013
-(Thực hành)
-Phòng: TH2
-GV: GV005</t>
-        </is>
-      </c>
+      <c r="F9" s="7" t="n"/>
       <c r="G9" s="7" t="n"/>
       <c r="H9" s="7" t="n"/>
       <c r="I9" s="7" t="n"/>
       <c r="J9" s="8" t="inlineStr">
         <is>
-          <t>MH013
-(Thực hành)
-Phòng: LT4
-GV: GV005</t>
+          <t>MH014
+(Lý thuyết)
+Phòng: LT2
+GV: GV006</t>
         </is>
       </c>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C10" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D10" s="7" t="n"/>
-      <c r="E10" s="8" t="inlineStr">
+      <c r="D10" s="8" t="inlineStr">
         <is>
           <t>MH013
-(Thực hành)
-Phòng: TH3
+(Lý thuyết)
+Phòng: LT2
 GV: GV005</t>
         </is>
       </c>
+      <c r="E10" s="7" t="n"/>
       <c r="F10" s="7" t="n"/>
       <c r="G10" s="7" t="n"/>
       <c r="H10" s="7" t="n"/>
       <c r="I10" s="7" t="n"/>
       <c r="J10" s="7" t="n"/>
     </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>DH22IT</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>MH014
-(Thực hành)
-Phòng: TH3
-GV: GV006</t>
-        </is>
-      </c>
-      <c r="E11" s="7" t="n"/>
-      <c r="F11" s="8" t="inlineStr">
-        <is>
-          <t>MH013
-(Thực hành)
-Phòng: LT2
-GV: GV008</t>
-        </is>
-      </c>
-      <c r="G11" s="7" t="n"/>
-      <c r="H11" s="7" t="n"/>
-      <c r="I11" s="7" t="n"/>
-      <c r="J11" s="7" t="n"/>
-    </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="9" t="n"/>
-      <c r="B12" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D12" s="7" t="n"/>
-      <c r="E12" s="8" t="inlineStr">
-        <is>
-          <t>MH014
-(Thực hành)
-Phòng: LT3
-GV: GV006</t>
-        </is>
-      </c>
-      <c r="F12" s="7" t="n"/>
-      <c r="G12" s="7" t="n"/>
-      <c r="H12" s="7" t="n"/>
-      <c r="I12" s="7" t="n"/>
-      <c r="J12" s="7" t="n"/>
-    </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="B13" s="7" t="inlineStr">
-        <is>
-          <t>DH22IT</t>
-        </is>
-      </c>
-      <c r="C13" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D13" s="7" t="n"/>
-      <c r="E13" s="7" t="n"/>
-      <c r="F13" s="7" t="n"/>
-      <c r="G13" s="7" t="n"/>
-      <c r="H13" s="8" t="inlineStr">
-        <is>
-          <t>MH014
-(Thực hành)
-Phòng: LT1
-GV: GV006</t>
-        </is>
-      </c>
-      <c r="I13" s="7" t="n"/>
-      <c r="J13" s="7" t="n"/>
-    </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A11:A12"/>
     <mergeCell ref="A5:G5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2297,7 +1836,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2412,33 +1951,36 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>DH23AI</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D8" s="7" t="n"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>MH013
+(Lý thuyết)
+Phòng: LT4
+GV: GV008</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="n"/>
-      <c r="F8" s="7" t="n"/>
+      <c r="F8" s="8" t="inlineStr">
+        <is>
+          <t>MH014
+(Lý thuyết)
+Phòng: LT4
+GV: GV006</t>
+        </is>
+      </c>
       <c r="G8" s="7" t="n"/>
       <c r="H8" s="7" t="n"/>
-      <c r="I8" s="8" t="inlineStr">
-        <is>
-          <t>MH014
-(Thực hành)
-Phòng: TH1
-GV: GV006</t>
-        </is>
-      </c>
+      <c r="I8" s="7" t="n"/>
       <c r="J8" s="7" t="n"/>
     </row>
     <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
+      <c r="A9" s="10" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
           <t>DH23AI</t>
@@ -2449,151 +1991,54 @@
       </c>
       <c r="D9" s="7" t="n"/>
       <c r="E9" s="7" t="n"/>
-      <c r="F9" s="8" t="inlineStr">
-        <is>
-          <t>MH013
-(Thực hành)
-Phòng: TH2
-GV: GV005</t>
-        </is>
-      </c>
+      <c r="F9" s="7" t="n"/>
       <c r="G9" s="7" t="n"/>
       <c r="H9" s="7" t="n"/>
       <c r="I9" s="7" t="n"/>
       <c r="J9" s="8" t="inlineStr">
         <is>
-          <t>MH013
-(Thực hành)
-Phòng: LT4
-GV: GV005</t>
+          <t>MH014
+(Lý thuyết)
+Phòng: LT2
+GV: GV006</t>
         </is>
       </c>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C10" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D10" s="7" t="n"/>
-      <c r="E10" s="8" t="inlineStr">
+      <c r="D10" s="8" t="inlineStr">
         <is>
           <t>MH013
-(Thực hành)
-Phòng: TH3
+(Lý thuyết)
+Phòng: LT2
 GV: GV005</t>
         </is>
       </c>
+      <c r="E10" s="7" t="n"/>
       <c r="F10" s="7" t="n"/>
       <c r="G10" s="7" t="n"/>
       <c r="H10" s="7" t="n"/>
       <c r="I10" s="7" t="n"/>
       <c r="J10" s="7" t="n"/>
     </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>DH22IT</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>MH014
-(Thực hành)
-Phòng: TH3
-GV: GV006</t>
-        </is>
-      </c>
-      <c r="E11" s="7" t="n"/>
-      <c r="F11" s="8" t="inlineStr">
-        <is>
-          <t>MH013
-(Thực hành)
-Phòng: LT2
-GV: GV008</t>
-        </is>
-      </c>
-      <c r="G11" s="7" t="n"/>
-      <c r="H11" s="7" t="n"/>
-      <c r="I11" s="7" t="n"/>
-      <c r="J11" s="7" t="n"/>
-    </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="9" t="n"/>
-      <c r="B12" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D12" s="7" t="n"/>
-      <c r="E12" s="8" t="inlineStr">
-        <is>
-          <t>MH014
-(Thực hành)
-Phòng: LT3
-GV: GV006</t>
-        </is>
-      </c>
-      <c r="F12" s="7" t="n"/>
-      <c r="G12" s="7" t="n"/>
-      <c r="H12" s="7" t="n"/>
-      <c r="I12" s="7" t="n"/>
-      <c r="J12" s="7" t="n"/>
-    </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="B13" s="7" t="inlineStr">
-        <is>
-          <t>DH22IT</t>
-        </is>
-      </c>
-      <c r="C13" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D13" s="7" t="n"/>
-      <c r="E13" s="7" t="n"/>
-      <c r="F13" s="7" t="n"/>
-      <c r="G13" s="7" t="n"/>
-      <c r="H13" s="8" t="inlineStr">
-        <is>
-          <t>MH014
-(Thực hành)
-Phòng: LT1
-GV: GV006</t>
-        </is>
-      </c>
-      <c r="I13" s="7" t="n"/>
-      <c r="J13" s="7" t="n"/>
-    </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A11:A12"/>
     <mergeCell ref="A5:G5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2606,7 +2051,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2716,25 +2161,32 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>DH23AI</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D8" s="7" t="n"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>MH013
+(Lý thuyết)
+Phòng: LT4
+GV: GV008</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="n"/>
       <c r="F8" s="8" t="inlineStr">
         <is>
-          <t>MH013
-(Thực hành)
-Phòng: TH2
-GV: GV005</t>
+          <t>MH014
+(Lý thuyết)
+Phòng: LT4
+GV: GV006</t>
         </is>
       </c>
       <c r="G8" s="7" t="n"/>
@@ -2745,99 +2197,37 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D9" s="7" t="n"/>
-      <c r="E9" s="8" t="inlineStr">
+      <c r="D9" s="8" t="inlineStr">
         <is>
           <t>MH013
-(Thực hành)
-Phòng: TH3
+(Lý thuyết)
+Phòng: LT2
 GV: GV005</t>
         </is>
       </c>
+      <c r="E9" s="7" t="n"/>
       <c r="F9" s="7" t="n"/>
       <c r="G9" s="7" t="n"/>
       <c r="H9" s="7" t="n"/>
       <c r="I9" s="7" t="n"/>
       <c r="J9" s="7" t="n"/>
     </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>DH22IT</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>MH014
-(Thực hành)
-Phòng: TH3
-GV: GV006</t>
-        </is>
-      </c>
-      <c r="E10" s="7" t="n"/>
-      <c r="F10" s="8" t="inlineStr">
-        <is>
-          <t>MH013
-(Thực hành)
-Phòng: LT2
-GV: GV008</t>
-        </is>
-      </c>
-      <c r="G10" s="7" t="n"/>
-      <c r="H10" s="7" t="n"/>
-      <c r="I10" s="7" t="n"/>
-      <c r="J10" s="7" t="n"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="9" t="n"/>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D11" s="7" t="n"/>
-      <c r="E11" s="8" t="inlineStr">
-        <is>
-          <t>MH014
-(Thực hành)
-Phòng: LT3
-GV: GV006</t>
-        </is>
-      </c>
-      <c r="F11" s="7" t="n"/>
-      <c r="G11" s="7" t="n"/>
-      <c r="H11" s="7" t="n"/>
-      <c r="I11" s="7" t="n"/>
-      <c r="J11" s="7" t="n"/>
-    </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:G1"/>
+  <mergeCells count="4">
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:G1"/>
     <mergeCell ref="A5:G5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2850,7 +2240,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2965,33 +2355,36 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>DH23AI</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D8" s="7" t="n"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>MH013
+(Lý thuyết)
+Phòng: LT4
+GV: GV008</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="n"/>
-      <c r="F8" s="7" t="n"/>
+      <c r="F8" s="8" t="inlineStr">
+        <is>
+          <t>MH014
+(Lý thuyết)
+Phòng: LT4
+GV: GV006</t>
+        </is>
+      </c>
       <c r="G8" s="7" t="n"/>
       <c r="H8" s="7" t="n"/>
-      <c r="I8" s="8" t="inlineStr">
-        <is>
-          <t>MH014
-(Thực hành)
-Phòng: TH1
-GV: GV006</t>
-        </is>
-      </c>
+      <c r="I8" s="7" t="n"/>
       <c r="J8" s="7" t="n"/>
     </row>
     <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
+      <c r="A9" s="10" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
           <t>DH23AI</t>
@@ -3002,49 +2395,42 @@
       </c>
       <c r="D9" s="7" t="n"/>
       <c r="E9" s="7" t="n"/>
-      <c r="F9" s="8" t="inlineStr">
-        <is>
-          <t>MH013
-(Thực hành)
-Phòng: TH2
-GV: GV005</t>
-        </is>
-      </c>
+      <c r="F9" s="7" t="n"/>
       <c r="G9" s="7" t="n"/>
       <c r="H9" s="7" t="n"/>
       <c r="I9" s="7" t="n"/>
       <c r="J9" s="8" t="inlineStr">
         <is>
-          <t>MH013
-(Thực hành)
-Phòng: LT4
-GV: GV005</t>
+          <t>MH014
+(Lý thuyết)
+Phòng: LT2
+GV: GV006</t>
         </is>
       </c>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C10" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D10" s="7" t="n"/>
-      <c r="E10" s="8" t="inlineStr">
+      <c r="D10" s="8" t="inlineStr">
         <is>
           <t>MH013
-(Thực hành)
-Phòng: TH3
+(Lý thuyết)
+Phòng: LT2
 GV: GV005</t>
         </is>
       </c>
+      <c r="E10" s="7" t="n"/>
       <c r="F10" s="7" t="n"/>
       <c r="G10" s="7" t="n"/>
       <c r="H10" s="7" t="n"/>
@@ -3054,68 +2440,65 @@
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C11" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D11" s="8" t="inlineStr">
+      <c r="D11" s="7" t="n"/>
+      <c r="E11" s="9" t="inlineStr">
         <is>
           <t>MH014
 (Thực hành)
-Phòng: TH3
+Phòng: TH2
 GV: GV006</t>
         </is>
       </c>
-      <c r="E11" s="7" t="n"/>
-      <c r="F11" s="8" t="inlineStr">
-        <is>
-          <t>MH013
-(Thực hành)
-Phòng: LT2
-GV: GV008</t>
-        </is>
-      </c>
+      <c r="F11" s="7" t="n"/>
       <c r="G11" s="7" t="n"/>
       <c r="H11" s="7" t="n"/>
       <c r="I11" s="7" t="n"/>
       <c r="J11" s="7" t="n"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="9" t="n"/>
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>DH23AI</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C12" s="7" t="n">
         <v>30</v>
       </c>
       <c r="D12" s="7" t="n"/>
-      <c r="E12" s="8" t="inlineStr">
-        <is>
-          <t>MH014
-(Thực hành)
-Phòng: LT3
-GV: GV006</t>
-        </is>
-      </c>
+      <c r="E12" s="7" t="n"/>
       <c r="F12" s="7" t="n"/>
       <c r="G12" s="7" t="n"/>
       <c r="H12" s="7" t="n"/>
-      <c r="I12" s="7" t="n"/>
+      <c r="I12" s="9" t="inlineStr">
+        <is>
+          <t>MH013
+(Thực hành)
+Phòng: TH3
+GV: GV008</t>
+        </is>
+      </c>
       <c r="J12" s="7" t="n"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="B13" s="7" t="inlineStr">
@@ -3130,23 +2513,52 @@
       <c r="E13" s="7" t="n"/>
       <c r="F13" s="7" t="n"/>
       <c r="G13" s="7" t="n"/>
-      <c r="H13" s="8" t="inlineStr">
+      <c r="H13" s="9" t="inlineStr">
         <is>
           <t>MH014
 (Thực hành)
-Phòng: LT1
+Phòng: TH2
 GV: GV006</t>
         </is>
       </c>
       <c r="I13" s="7" t="n"/>
       <c r="J13" s="7" t="n"/>
     </row>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D14" s="7" t="n"/>
+      <c r="E14" s="7" t="n"/>
+      <c r="F14" s="9" t="inlineStr">
+        <is>
+          <t>MH013
+(Thực hành)
+Phòng: TH3
+GV: GV008</t>
+        </is>
+      </c>
+      <c r="G14" s="7" t="n"/>
+      <c r="H14" s="7" t="n"/>
+      <c r="I14" s="7" t="n"/>
+      <c r="J14" s="7" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A11:A12"/>
     <mergeCell ref="A5:G5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3159,7 +2571,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3274,33 +2686,36 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>DH23AI</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D8" s="7" t="n"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>MH013
+(Lý thuyết)
+Phòng: LT4
+GV: GV008</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="n"/>
-      <c r="F8" s="7" t="n"/>
+      <c r="F8" s="8" t="inlineStr">
+        <is>
+          <t>MH014
+(Lý thuyết)
+Phòng: LT4
+GV: GV006</t>
+        </is>
+      </c>
       <c r="G8" s="7" t="n"/>
       <c r="H8" s="7" t="n"/>
-      <c r="I8" s="8" t="inlineStr">
-        <is>
-          <t>MH014
-(Thực hành)
-Phòng: TH1
-GV: GV006</t>
-        </is>
-      </c>
+      <c r="I8" s="7" t="n"/>
       <c r="J8" s="7" t="n"/>
     </row>
     <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
+      <c r="A9" s="10" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
           <t>DH23AI</t>
@@ -3311,49 +2726,42 @@
       </c>
       <c r="D9" s="7" t="n"/>
       <c r="E9" s="7" t="n"/>
-      <c r="F9" s="8" t="inlineStr">
-        <is>
-          <t>MH013
-(Thực hành)
-Phòng: TH2
-GV: GV005</t>
-        </is>
-      </c>
+      <c r="F9" s="7" t="n"/>
       <c r="G9" s="7" t="n"/>
       <c r="H9" s="7" t="n"/>
       <c r="I9" s="7" t="n"/>
       <c r="J9" s="8" t="inlineStr">
         <is>
-          <t>MH013
-(Thực hành)
-Phòng: LT4
-GV: GV005</t>
+          <t>MH014
+(Lý thuyết)
+Phòng: LT2
+GV: GV006</t>
         </is>
       </c>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C10" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D10" s="7" t="n"/>
-      <c r="E10" s="8" t="inlineStr">
+      <c r="D10" s="8" t="inlineStr">
         <is>
           <t>MH013
-(Thực hành)
-Phòng: TH3
+(Lý thuyết)
+Phòng: LT2
 GV: GV005</t>
         </is>
       </c>
+      <c r="E10" s="7" t="n"/>
       <c r="F10" s="7" t="n"/>
       <c r="G10" s="7" t="n"/>
       <c r="H10" s="7" t="n"/>
@@ -3363,68 +2771,65 @@
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C11" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D11" s="8" t="inlineStr">
+      <c r="D11" s="7" t="n"/>
+      <c r="E11" s="9" t="inlineStr">
         <is>
           <t>MH014
 (Thực hành)
-Phòng: TH3
+Phòng: TH2
 GV: GV006</t>
         </is>
       </c>
-      <c r="E11" s="7" t="n"/>
-      <c r="F11" s="8" t="inlineStr">
-        <is>
-          <t>MH013
-(Thực hành)
-Phòng: LT2
-GV: GV008</t>
-        </is>
-      </c>
+      <c r="F11" s="7" t="n"/>
       <c r="G11" s="7" t="n"/>
       <c r="H11" s="7" t="n"/>
       <c r="I11" s="7" t="n"/>
       <c r="J11" s="7" t="n"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="9" t="n"/>
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>DH23AI</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C12" s="7" t="n">
         <v>30</v>
       </c>
       <c r="D12" s="7" t="n"/>
-      <c r="E12" s="8" t="inlineStr">
-        <is>
-          <t>MH014
-(Thực hành)
-Phòng: LT3
-GV: GV006</t>
-        </is>
-      </c>
+      <c r="E12" s="7" t="n"/>
       <c r="F12" s="7" t="n"/>
       <c r="G12" s="7" t="n"/>
       <c r="H12" s="7" t="n"/>
-      <c r="I12" s="7" t="n"/>
+      <c r="I12" s="9" t="inlineStr">
+        <is>
+          <t>MH013
+(Thực hành)
+Phòng: TH3
+GV: GV008</t>
+        </is>
+      </c>
       <c r="J12" s="7" t="n"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="B13" s="7" t="inlineStr">
@@ -3439,23 +2844,52 @@
       <c r="E13" s="7" t="n"/>
       <c r="F13" s="7" t="n"/>
       <c r="G13" s="7" t="n"/>
-      <c r="H13" s="8" t="inlineStr">
+      <c r="H13" s="9" t="inlineStr">
         <is>
           <t>MH014
 (Thực hành)
-Phòng: LT1
+Phòng: TH2
 GV: GV006</t>
         </is>
       </c>
       <c r="I13" s="7" t="n"/>
       <c r="J13" s="7" t="n"/>
     </row>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D14" s="7" t="n"/>
+      <c r="E14" s="7" t="n"/>
+      <c r="F14" s="9" t="inlineStr">
+        <is>
+          <t>MH013
+(Thực hành)
+Phòng: TH3
+GV: GV008</t>
+        </is>
+      </c>
+      <c r="G14" s="7" t="n"/>
+      <c r="H14" s="7" t="n"/>
+      <c r="I14" s="7" t="n"/>
+      <c r="J14" s="7" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A11:A12"/>
     <mergeCell ref="A5:G5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3468,7 +2902,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3583,33 +3017,36 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>DH23AI</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D8" s="7" t="n"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>MH013
+(Lý thuyết)
+Phòng: LT4
+GV: GV008</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="n"/>
-      <c r="F8" s="7" t="n"/>
+      <c r="F8" s="8" t="inlineStr">
+        <is>
+          <t>MH014
+(Lý thuyết)
+Phòng: LT4
+GV: GV006</t>
+        </is>
+      </c>
       <c r="G8" s="7" t="n"/>
       <c r="H8" s="7" t="n"/>
-      <c r="I8" s="8" t="inlineStr">
-        <is>
-          <t>MH014
-(Thực hành)
-Phòng: TH1
-GV: GV006</t>
-        </is>
-      </c>
+      <c r="I8" s="7" t="n"/>
       <c r="J8" s="7" t="n"/>
     </row>
     <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
+      <c r="A9" s="10" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
           <t>DH23AI</t>
@@ -3620,49 +3057,42 @@
       </c>
       <c r="D9" s="7" t="n"/>
       <c r="E9" s="7" t="n"/>
-      <c r="F9" s="8" t="inlineStr">
-        <is>
-          <t>MH013
-(Thực hành)
-Phòng: TH2
-GV: GV005</t>
-        </is>
-      </c>
+      <c r="F9" s="7" t="n"/>
       <c r="G9" s="7" t="n"/>
       <c r="H9" s="7" t="n"/>
       <c r="I9" s="7" t="n"/>
       <c r="J9" s="8" t="inlineStr">
         <is>
-          <t>MH013
-(Thực hành)
-Phòng: LT4
-GV: GV005</t>
+          <t>MH014
+(Lý thuyết)
+Phòng: LT2
+GV: GV006</t>
         </is>
       </c>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C10" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D10" s="7" t="n"/>
-      <c r="E10" s="8" t="inlineStr">
+      <c r="D10" s="8" t="inlineStr">
         <is>
           <t>MH013
-(Thực hành)
-Phòng: TH3
+(Lý thuyết)
+Phòng: LT2
 GV: GV005</t>
         </is>
       </c>
+      <c r="E10" s="7" t="n"/>
       <c r="F10" s="7" t="n"/>
       <c r="G10" s="7" t="n"/>
       <c r="H10" s="7" t="n"/>
@@ -3672,68 +3102,65 @@
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C11" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D11" s="8" t="inlineStr">
+      <c r="D11" s="7" t="n"/>
+      <c r="E11" s="9" t="inlineStr">
         <is>
           <t>MH014
 (Thực hành)
-Phòng: TH3
+Phòng: TH2
 GV: GV006</t>
         </is>
       </c>
-      <c r="E11" s="7" t="n"/>
-      <c r="F11" s="8" t="inlineStr">
-        <is>
-          <t>MH013
-(Thực hành)
-Phòng: LT2
-GV: GV008</t>
-        </is>
-      </c>
+      <c r="F11" s="7" t="n"/>
       <c r="G11" s="7" t="n"/>
       <c r="H11" s="7" t="n"/>
       <c r="I11" s="7" t="n"/>
       <c r="J11" s="7" t="n"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="9" t="n"/>
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>DH23AI</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C12" s="7" t="n">
         <v>30</v>
       </c>
       <c r="D12" s="7" t="n"/>
-      <c r="E12" s="8" t="inlineStr">
-        <is>
-          <t>MH014
-(Thực hành)
-Phòng: LT3
-GV: GV006</t>
-        </is>
-      </c>
+      <c r="E12" s="7" t="n"/>
       <c r="F12" s="7" t="n"/>
       <c r="G12" s="7" t="n"/>
       <c r="H12" s="7" t="n"/>
-      <c r="I12" s="7" t="n"/>
+      <c r="I12" s="9" t="inlineStr">
+        <is>
+          <t>MH013
+(Thực hành)
+Phòng: TH3
+GV: GV008</t>
+        </is>
+      </c>
       <c r="J12" s="7" t="n"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="B13" s="7" t="inlineStr">
@@ -3748,23 +3175,52 @@
       <c r="E13" s="7" t="n"/>
       <c r="F13" s="7" t="n"/>
       <c r="G13" s="7" t="n"/>
-      <c r="H13" s="8" t="inlineStr">
+      <c r="H13" s="9" t="inlineStr">
         <is>
           <t>MH014
 (Thực hành)
-Phòng: LT1
+Phòng: TH2
 GV: GV006</t>
         </is>
       </c>
       <c r="I13" s="7" t="n"/>
       <c r="J13" s="7" t="n"/>
     </row>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D14" s="7" t="n"/>
+      <c r="E14" s="7" t="n"/>
+      <c r="F14" s="9" t="inlineStr">
+        <is>
+          <t>MH013
+(Thực hành)
+Phòng: TH3
+GV: GV008</t>
+        </is>
+      </c>
+      <c r="G14" s="7" t="n"/>
+      <c r="H14" s="7" t="n"/>
+      <c r="I14" s="7" t="n"/>
+      <c r="J14" s="7" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A11:A12"/>
     <mergeCell ref="A5:G5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3777,7 +3233,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3892,33 +3348,36 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>DH23AI</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D8" s="7" t="n"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>MH013
+(Lý thuyết)
+Phòng: LT4
+GV: GV008</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="n"/>
-      <c r="F8" s="7" t="n"/>
+      <c r="F8" s="8" t="inlineStr">
+        <is>
+          <t>MH014
+(Lý thuyết)
+Phòng: LT4
+GV: GV006</t>
+        </is>
+      </c>
       <c r="G8" s="7" t="n"/>
       <c r="H8" s="7" t="n"/>
-      <c r="I8" s="8" t="inlineStr">
-        <is>
-          <t>MH014
-(Thực hành)
-Phòng: TH1
-GV: GV006</t>
-        </is>
-      </c>
+      <c r="I8" s="7" t="n"/>
       <c r="J8" s="7" t="n"/>
     </row>
     <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
+      <c r="A9" s="10" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
           <t>DH23AI</t>
@@ -3929,49 +3388,42 @@
       </c>
       <c r="D9" s="7" t="n"/>
       <c r="E9" s="7" t="n"/>
-      <c r="F9" s="8" t="inlineStr">
-        <is>
-          <t>MH013
-(Thực hành)
-Phòng: TH2
-GV: GV005</t>
-        </is>
-      </c>
+      <c r="F9" s="7" t="n"/>
       <c r="G9" s="7" t="n"/>
       <c r="H9" s="7" t="n"/>
       <c r="I9" s="7" t="n"/>
       <c r="J9" s="8" t="inlineStr">
         <is>
-          <t>MH013
-(Thực hành)
-Phòng: LT4
-GV: GV005</t>
+          <t>MH014
+(Lý thuyết)
+Phòng: LT2
+GV: GV006</t>
         </is>
       </c>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C10" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D10" s="7" t="n"/>
-      <c r="E10" s="8" t="inlineStr">
+      <c r="D10" s="8" t="inlineStr">
         <is>
           <t>MH013
-(Thực hành)
-Phòng: TH3
+(Lý thuyết)
+Phòng: LT2
 GV: GV005</t>
         </is>
       </c>
+      <c r="E10" s="7" t="n"/>
       <c r="F10" s="7" t="n"/>
       <c r="G10" s="7" t="n"/>
       <c r="H10" s="7" t="n"/>
@@ -3981,68 +3433,65 @@
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C11" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D11" s="8" t="inlineStr">
+      <c r="D11" s="7" t="n"/>
+      <c r="E11" s="9" t="inlineStr">
         <is>
           <t>MH014
 (Thực hành)
-Phòng: TH3
+Phòng: TH2
 GV: GV006</t>
         </is>
       </c>
-      <c r="E11" s="7" t="n"/>
-      <c r="F11" s="8" t="inlineStr">
-        <is>
-          <t>MH013
-(Thực hành)
-Phòng: LT2
-GV: GV008</t>
-        </is>
-      </c>
+      <c r="F11" s="7" t="n"/>
       <c r="G11" s="7" t="n"/>
       <c r="H11" s="7" t="n"/>
       <c r="I11" s="7" t="n"/>
       <c r="J11" s="7" t="n"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="9" t="n"/>
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>DH23AI</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C12" s="7" t="n">
         <v>30</v>
       </c>
       <c r="D12" s="7" t="n"/>
-      <c r="E12" s="8" t="inlineStr">
-        <is>
-          <t>MH014
-(Thực hành)
-Phòng: LT3
-GV: GV006</t>
-        </is>
-      </c>
+      <c r="E12" s="7" t="n"/>
       <c r="F12" s="7" t="n"/>
       <c r="G12" s="7" t="n"/>
       <c r="H12" s="7" t="n"/>
-      <c r="I12" s="7" t="n"/>
+      <c r="I12" s="9" t="inlineStr">
+        <is>
+          <t>MH013
+(Thực hành)
+Phòng: TH3
+GV: GV008</t>
+        </is>
+      </c>
       <c r="J12" s="7" t="n"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="B13" s="7" t="inlineStr">
@@ -4057,23 +3506,52 @@
       <c r="E13" s="7" t="n"/>
       <c r="F13" s="7" t="n"/>
       <c r="G13" s="7" t="n"/>
-      <c r="H13" s="8" t="inlineStr">
+      <c r="H13" s="9" t="inlineStr">
         <is>
           <t>MH014
 (Thực hành)
-Phòng: LT1
+Phòng: TH2
 GV: GV006</t>
         </is>
       </c>
       <c r="I13" s="7" t="n"/>
       <c r="J13" s="7" t="n"/>
     </row>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D14" s="7" t="n"/>
+      <c r="E14" s="7" t="n"/>
+      <c r="F14" s="9" t="inlineStr">
+        <is>
+          <t>MH013
+(Thực hành)
+Phòng: TH3
+GV: GV008</t>
+        </is>
+      </c>
+      <c r="G14" s="7" t="n"/>
+      <c r="H14" s="7" t="n"/>
+      <c r="I14" s="7" t="n"/>
+      <c r="J14" s="7" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A11:A12"/>
     <mergeCell ref="A5:G5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4086,7 +3564,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4201,33 +3679,36 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>DH23AI</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D8" s="7" t="n"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>MH013
+(Lý thuyết)
+Phòng: LT4
+GV: GV008</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="n"/>
-      <c r="F8" s="7" t="n"/>
+      <c r="F8" s="8" t="inlineStr">
+        <is>
+          <t>MH014
+(Lý thuyết)
+Phòng: LT4
+GV: GV006</t>
+        </is>
+      </c>
       <c r="G8" s="7" t="n"/>
       <c r="H8" s="7" t="n"/>
-      <c r="I8" s="8" t="inlineStr">
-        <is>
-          <t>MH014
-(Thực hành)
-Phòng: TH1
-GV: GV006</t>
-        </is>
-      </c>
+      <c r="I8" s="7" t="n"/>
       <c r="J8" s="7" t="n"/>
     </row>
     <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
+      <c r="A9" s="10" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
           <t>DH23AI</t>
@@ -4238,49 +3719,42 @@
       </c>
       <c r="D9" s="7" t="n"/>
       <c r="E9" s="7" t="n"/>
-      <c r="F9" s="8" t="inlineStr">
-        <is>
-          <t>MH013
-(Thực hành)
-Phòng: TH2
-GV: GV005</t>
-        </is>
-      </c>
+      <c r="F9" s="7" t="n"/>
       <c r="G9" s="7" t="n"/>
       <c r="H9" s="7" t="n"/>
       <c r="I9" s="7" t="n"/>
       <c r="J9" s="8" t="inlineStr">
         <is>
-          <t>MH013
-(Thực hành)
-Phòng: LT4
-GV: GV005</t>
+          <t>MH014
+(Lý thuyết)
+Phòng: LT2
+GV: GV006</t>
         </is>
       </c>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C10" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D10" s="7" t="n"/>
-      <c r="E10" s="8" t="inlineStr">
+      <c r="D10" s="8" t="inlineStr">
         <is>
           <t>MH013
-(Thực hành)
-Phòng: TH3
+(Lý thuyết)
+Phòng: LT2
 GV: GV005</t>
         </is>
       </c>
+      <c r="E10" s="7" t="n"/>
       <c r="F10" s="7" t="n"/>
       <c r="G10" s="7" t="n"/>
       <c r="H10" s="7" t="n"/>
@@ -4290,41 +3764,38 @@
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C11" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D11" s="8" t="inlineStr">
+      <c r="D11" s="7" t="n"/>
+      <c r="E11" s="9" t="inlineStr">
         <is>
           <t>MH014
 (Thực hành)
-Phòng: TH3
+Phòng: TH2
 GV: GV006</t>
         </is>
       </c>
-      <c r="E11" s="7" t="n"/>
-      <c r="F11" s="8" t="inlineStr">
-        <is>
-          <t>MH013
-(Thực hành)
-Phòng: LT2
-GV: GV008</t>
-        </is>
-      </c>
+      <c r="F11" s="7" t="n"/>
       <c r="G11" s="7" t="n"/>
       <c r="H11" s="7" t="n"/>
       <c r="I11" s="7" t="n"/>
       <c r="J11" s="7" t="n"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="9" t="n"/>
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
       <c r="B12" s="7" t="inlineStr">
         <is>
           <t>DH23AI</t>
@@ -4334,55 +3805,26 @@
         <v>30</v>
       </c>
       <c r="D12" s="7" t="n"/>
-      <c r="E12" s="8" t="inlineStr">
-        <is>
-          <t>MH014
+      <c r="E12" s="7" t="n"/>
+      <c r="F12" s="9" t="inlineStr">
+        <is>
+          <t>MH013
 (Thực hành)
-Phòng: LT3
-GV: GV006</t>
-        </is>
-      </c>
-      <c r="F12" s="7" t="n"/>
+Phòng: TH3
+GV: GV008</t>
+        </is>
+      </c>
       <c r="G12" s="7" t="n"/>
       <c r="H12" s="7" t="n"/>
       <c r="I12" s="7" t="n"/>
       <c r="J12" s="7" t="n"/>
     </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="B13" s="7" t="inlineStr">
-        <is>
-          <t>DH22IT</t>
-        </is>
-      </c>
-      <c r="C13" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D13" s="7" t="n"/>
-      <c r="E13" s="7" t="n"/>
-      <c r="F13" s="7" t="n"/>
-      <c r="G13" s="7" t="n"/>
-      <c r="H13" s="8" t="inlineStr">
-        <is>
-          <t>MH014
-(Thực hành)
-Phòng: LT1
-GV: GV006</t>
-        </is>
-      </c>
-      <c r="I13" s="7" t="n"/>
-      <c r="J13" s="7" t="n"/>
-    </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A11:A12"/>
     <mergeCell ref="A5:G5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4395,7 +3837,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4510,33 +3952,36 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>DH23AI</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D8" s="7" t="n"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>MH013
+(Lý thuyết)
+Phòng: LT4
+GV: GV008</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="n"/>
-      <c r="F8" s="7" t="n"/>
+      <c r="F8" s="8" t="inlineStr">
+        <is>
+          <t>MH014
+(Lý thuyết)
+Phòng: LT4
+GV: GV006</t>
+        </is>
+      </c>
       <c r="G8" s="7" t="n"/>
       <c r="H8" s="7" t="n"/>
-      <c r="I8" s="8" t="inlineStr">
-        <is>
-          <t>MH014
-(Thực hành)
-Phòng: TH1
-GV: GV006</t>
-        </is>
-      </c>
+      <c r="I8" s="7" t="n"/>
       <c r="J8" s="7" t="n"/>
     </row>
     <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
+      <c r="A9" s="10" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
           <t>DH23AI</t>
@@ -4547,151 +3992,54 @@
       </c>
       <c r="D9" s="7" t="n"/>
       <c r="E9" s="7" t="n"/>
-      <c r="F9" s="8" t="inlineStr">
-        <is>
-          <t>MH013
-(Thực hành)
-Phòng: TH2
-GV: GV005</t>
-        </is>
-      </c>
+      <c r="F9" s="7" t="n"/>
       <c r="G9" s="7" t="n"/>
       <c r="H9" s="7" t="n"/>
       <c r="I9" s="7" t="n"/>
       <c r="J9" s="8" t="inlineStr">
         <is>
-          <t>MH013
-(Thực hành)
-Phòng: LT4
-GV: GV005</t>
+          <t>MH014
+(Lý thuyết)
+Phòng: LT2
+GV: GV006</t>
         </is>
       </c>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C10" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D10" s="7" t="n"/>
-      <c r="E10" s="8" t="inlineStr">
+      <c r="D10" s="8" t="inlineStr">
         <is>
           <t>MH013
-(Thực hành)
-Phòng: TH3
+(Lý thuyết)
+Phòng: LT2
 GV: GV005</t>
         </is>
       </c>
+      <c r="E10" s="7" t="n"/>
       <c r="F10" s="7" t="n"/>
       <c r="G10" s="7" t="n"/>
       <c r="H10" s="7" t="n"/>
       <c r="I10" s="7" t="n"/>
       <c r="J10" s="7" t="n"/>
     </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>DH22IT</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>MH014
-(Thực hành)
-Phòng: TH3
-GV: GV006</t>
-        </is>
-      </c>
-      <c r="E11" s="7" t="n"/>
-      <c r="F11" s="8" t="inlineStr">
-        <is>
-          <t>MH013
-(Thực hành)
-Phòng: LT2
-GV: GV008</t>
-        </is>
-      </c>
-      <c r="G11" s="7" t="n"/>
-      <c r="H11" s="7" t="n"/>
-      <c r="I11" s="7" t="n"/>
-      <c r="J11" s="7" t="n"/>
-    </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="9" t="n"/>
-      <c r="B12" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D12" s="7" t="n"/>
-      <c r="E12" s="8" t="inlineStr">
-        <is>
-          <t>MH014
-(Thực hành)
-Phòng: LT3
-GV: GV006</t>
-        </is>
-      </c>
-      <c r="F12" s="7" t="n"/>
-      <c r="G12" s="7" t="n"/>
-      <c r="H12" s="7" t="n"/>
-      <c r="I12" s="7" t="n"/>
-      <c r="J12" s="7" t="n"/>
-    </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="B13" s="7" t="inlineStr">
-        <is>
-          <t>DH22IT</t>
-        </is>
-      </c>
-      <c r="C13" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D13" s="7" t="n"/>
-      <c r="E13" s="7" t="n"/>
-      <c r="F13" s="7" t="n"/>
-      <c r="G13" s="7" t="n"/>
-      <c r="H13" s="8" t="inlineStr">
-        <is>
-          <t>MH014
-(Thực hành)
-Phòng: LT1
-GV: GV006</t>
-        </is>
-      </c>
-      <c r="I13" s="7" t="n"/>
-      <c r="J13" s="7" t="n"/>
-    </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A11:A12"/>
     <mergeCell ref="A5:G5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4704,7 +4052,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4819,33 +4167,36 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>DH23AI</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D8" s="7" t="n"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>MH013
+(Lý thuyết)
+Phòng: LT4
+GV: GV008</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="n"/>
-      <c r="F8" s="7" t="n"/>
+      <c r="F8" s="8" t="inlineStr">
+        <is>
+          <t>MH014
+(Lý thuyết)
+Phòng: LT4
+GV: GV006</t>
+        </is>
+      </c>
       <c r="G8" s="7" t="n"/>
       <c r="H8" s="7" t="n"/>
-      <c r="I8" s="8" t="inlineStr">
-        <is>
-          <t>MH014
-(Thực hành)
-Phòng: TH1
-GV: GV006</t>
-        </is>
-      </c>
+      <c r="I8" s="7" t="n"/>
       <c r="J8" s="7" t="n"/>
     </row>
     <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
+      <c r="A9" s="10" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
           <t>DH23AI</t>
@@ -4856,151 +4207,54 @@
       </c>
       <c r="D9" s="7" t="n"/>
       <c r="E9" s="7" t="n"/>
-      <c r="F9" s="8" t="inlineStr">
-        <is>
-          <t>MH013
-(Thực hành)
-Phòng: TH2
-GV: GV005</t>
-        </is>
-      </c>
+      <c r="F9" s="7" t="n"/>
       <c r="G9" s="7" t="n"/>
       <c r="H9" s="7" t="n"/>
       <c r="I9" s="7" t="n"/>
       <c r="J9" s="8" t="inlineStr">
         <is>
-          <t>MH013
-(Thực hành)
-Phòng: LT4
-GV: GV005</t>
+          <t>MH014
+(Lý thuyết)
+Phòng: LT2
+GV: GV006</t>
         </is>
       </c>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C10" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D10" s="7" t="n"/>
-      <c r="E10" s="8" t="inlineStr">
+      <c r="D10" s="8" t="inlineStr">
         <is>
           <t>MH013
-(Thực hành)
-Phòng: TH3
+(Lý thuyết)
+Phòng: LT2
 GV: GV005</t>
         </is>
       </c>
+      <c r="E10" s="7" t="n"/>
       <c r="F10" s="7" t="n"/>
       <c r="G10" s="7" t="n"/>
       <c r="H10" s="7" t="n"/>
       <c r="I10" s="7" t="n"/>
       <c r="J10" s="7" t="n"/>
     </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>DH22IT</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>MH014
-(Thực hành)
-Phòng: TH3
-GV: GV006</t>
-        </is>
-      </c>
-      <c r="E11" s="7" t="n"/>
-      <c r="F11" s="8" t="inlineStr">
-        <is>
-          <t>MH013
-(Thực hành)
-Phòng: LT2
-GV: GV008</t>
-        </is>
-      </c>
-      <c r="G11" s="7" t="n"/>
-      <c r="H11" s="7" t="n"/>
-      <c r="I11" s="7" t="n"/>
-      <c r="J11" s="7" t="n"/>
-    </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="9" t="n"/>
-      <c r="B12" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D12" s="7" t="n"/>
-      <c r="E12" s="8" t="inlineStr">
-        <is>
-          <t>MH014
-(Thực hành)
-Phòng: LT3
-GV: GV006</t>
-        </is>
-      </c>
-      <c r="F12" s="7" t="n"/>
-      <c r="G12" s="7" t="n"/>
-      <c r="H12" s="7" t="n"/>
-      <c r="I12" s="7" t="n"/>
-      <c r="J12" s="7" t="n"/>
-    </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="B13" s="7" t="inlineStr">
-        <is>
-          <t>DH22IT</t>
-        </is>
-      </c>
-      <c r="C13" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D13" s="7" t="n"/>
-      <c r="E13" s="7" t="n"/>
-      <c r="F13" s="7" t="n"/>
-      <c r="G13" s="7" t="n"/>
-      <c r="H13" s="8" t="inlineStr">
-        <is>
-          <t>MH014
-(Thực hành)
-Phòng: LT1
-GV: GV006</t>
-        </is>
-      </c>
-      <c r="I13" s="7" t="n"/>
-      <c r="J13" s="7" t="n"/>
-    </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A11:A12"/>
     <mergeCell ref="A5:G5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5013,7 +4267,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5128,33 +4382,36 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>DH23AI</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D8" s="7" t="n"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>MH013
+(Lý thuyết)
+Phòng: LT4
+GV: GV008</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="n"/>
-      <c r="F8" s="7" t="n"/>
+      <c r="F8" s="8" t="inlineStr">
+        <is>
+          <t>MH014
+(Lý thuyết)
+Phòng: LT4
+GV: GV006</t>
+        </is>
+      </c>
       <c r="G8" s="7" t="n"/>
       <c r="H8" s="7" t="n"/>
-      <c r="I8" s="8" t="inlineStr">
-        <is>
-          <t>MH014
-(Thực hành)
-Phòng: TH1
-GV: GV006</t>
-        </is>
-      </c>
+      <c r="I8" s="7" t="n"/>
       <c r="J8" s="7" t="n"/>
     </row>
     <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
+      <c r="A9" s="10" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
           <t>DH23AI</t>
@@ -5165,151 +4422,54 @@
       </c>
       <c r="D9" s="7" t="n"/>
       <c r="E9" s="7" t="n"/>
-      <c r="F9" s="8" t="inlineStr">
-        <is>
-          <t>MH013
-(Thực hành)
-Phòng: TH2
-GV: GV005</t>
-        </is>
-      </c>
+      <c r="F9" s="7" t="n"/>
       <c r="G9" s="7" t="n"/>
       <c r="H9" s="7" t="n"/>
       <c r="I9" s="7" t="n"/>
       <c r="J9" s="8" t="inlineStr">
         <is>
-          <t>MH013
-(Thực hành)
-Phòng: LT4
-GV: GV005</t>
+          <t>MH014
+(Lý thuyết)
+Phòng: LT2
+GV: GV006</t>
         </is>
       </c>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C10" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D10" s="7" t="n"/>
-      <c r="E10" s="8" t="inlineStr">
+      <c r="D10" s="8" t="inlineStr">
         <is>
           <t>MH013
-(Thực hành)
-Phòng: TH3
+(Lý thuyết)
+Phòng: LT2
 GV: GV005</t>
         </is>
       </c>
+      <c r="E10" s="7" t="n"/>
       <c r="F10" s="7" t="n"/>
       <c r="G10" s="7" t="n"/>
       <c r="H10" s="7" t="n"/>
       <c r="I10" s="7" t="n"/>
       <c r="J10" s="7" t="n"/>
     </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>DH22IT</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>MH014
-(Thực hành)
-Phòng: TH3
-GV: GV006</t>
-        </is>
-      </c>
-      <c r="E11" s="7" t="n"/>
-      <c r="F11" s="8" t="inlineStr">
-        <is>
-          <t>MH013
-(Thực hành)
-Phòng: LT2
-GV: GV008</t>
-        </is>
-      </c>
-      <c r="G11" s="7" t="n"/>
-      <c r="H11" s="7" t="n"/>
-      <c r="I11" s="7" t="n"/>
-      <c r="J11" s="7" t="n"/>
-    </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="9" t="n"/>
-      <c r="B12" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D12" s="7" t="n"/>
-      <c r="E12" s="8" t="inlineStr">
-        <is>
-          <t>MH014
-(Thực hành)
-Phòng: LT3
-GV: GV006</t>
-        </is>
-      </c>
-      <c r="F12" s="7" t="n"/>
-      <c r="G12" s="7" t="n"/>
-      <c r="H12" s="7" t="n"/>
-      <c r="I12" s="7" t="n"/>
-      <c r="J12" s="7" t="n"/>
-    </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="B13" s="7" t="inlineStr">
-        <is>
-          <t>DH22IT</t>
-        </is>
-      </c>
-      <c r="C13" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D13" s="7" t="n"/>
-      <c r="E13" s="7" t="n"/>
-      <c r="F13" s="7" t="n"/>
-      <c r="G13" s="7" t="n"/>
-      <c r="H13" s="8" t="inlineStr">
-        <is>
-          <t>MH014
-(Thực hành)
-Phòng: LT1
-GV: GV006</t>
-        </is>
-      </c>
-      <c r="I13" s="7" t="n"/>
-      <c r="J13" s="7" t="n"/>
-    </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A11:A12"/>
     <mergeCell ref="A5:G5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
